--- a/StructureDefinition-TipoVia.xlsx
+++ b/StructureDefinition-TipoVia.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T21:09:05-04:00</t>
+    <t>2023-07-04T17:18:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient.address</t>
   </si>
   <si>
     <t/>

--- a/StructureDefinition-TipoVia.xlsx
+++ b/StructureDefinition-TipoVia.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:18:33-04:00</t>
+    <t>2023-07-19T16:02:56-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TipoVia.xlsx
+++ b/StructureDefinition-TipoVia.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T16:02:56-04:00</t>
+    <t>2023-07-21T15:33:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TipoVia.xlsx
+++ b/StructureDefinition-TipoVia.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:33:08-04:00</t>
+    <t>2023-07-24T10:24:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TipoVia.xlsx
+++ b/StructureDefinition-TipoVia.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T10:24:09-04:00</t>
+    <t>2023-07-24T11:34:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
